--- a/data/Szenario_Link_different/Power_VRES.xlsx
+++ b/data/Szenario_Link_different/Power_VRES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Trafo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Link_different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8DEB8-8DD2-4E86-A0A2-B10E6E596728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81964C7B-C033-443A-8BC3-C0D40D7CC085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J8" s="15">
         <v>72641.801500000001</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J9" s="15">
         <v>80000</v>
@@ -1340,7 +1340,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14">
         <v>100</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J10" s="15">
         <v>84467.2111</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J11" s="15">
         <v>84967.2111</v>
@@ -1446,7 +1446,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" s="14">
         <v>100</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J12" s="15">
         <v>84467.2111</v>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J13" s="15">
         <v>84967.2111</v>
@@ -1552,7 +1552,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14" s="14">
         <v>100</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J14" s="15">
         <v>84467.2111</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J15" s="15">
         <v>84967.2111</v>
@@ -1658,7 +1658,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G16" s="14">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="J16" s="15">
         <v>72641.801500000001</v>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J17" s="15">
         <v>80000</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J18" s="15">
         <v>80000</v>

--- a/data/Szenario_Link_different/Power_VRES.xlsx
+++ b/data/Szenario_Link_different/Power_VRES.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Link_different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81964C7B-C033-443A-8BC3-C0D40D7CC085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D760294-639F-401B-AC3B-7B4449231E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -854,7 +867,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1245,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1340,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="14">
         <v>100</v>
@@ -1393,7 +1406,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="14">
         <v>100</v>
@@ -1446,7 +1459,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="14">
         <v>100</v>
@@ -1658,7 +1671,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="13">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="14">
         <v>100</v>

--- a/data/Szenario_Link_different/Power_VRES.xlsx
+++ b/data/Szenario_Link_different/Power_VRES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Link_different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D760294-639F-401B-AC3B-7B4449231E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB3047-3864-4628-BD1A-6BA1D35E18FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J8" s="15">
         <v>72641.801500000001</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J9" s="15">
         <v>80000</v>
@@ -1353,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="F10" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G10" s="14">
         <v>100</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J10" s="15">
         <v>84467.2111</v>
@@ -1406,7 +1406,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J11" s="15">
         <v>84967.2111</v>
@@ -1459,7 +1459,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
         <v>100</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J12" s="15">
         <v>84467.2111</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J13" s="15">
         <v>84967.2111</v>
@@ -1565,7 +1565,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
         <v>100</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J14" s="15">
         <v>84467.2111</v>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J15" s="15">
         <v>84967.2111</v>
@@ -1671,7 +1671,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="13">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
         <v>100</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J16" s="15">
         <v>72641.801500000001</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J17" s="15">
         <v>80000</v>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J18" s="15">
         <v>80000</v>
